--- a/Traffic Shop.xlsx
+++ b/Traffic Shop.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
   <si>
     <t>Кол-во транзакций, 1000 ед.</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Ukraine Ave OOH</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1138,10 @@
   <dimension ref="A1:BL122"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="X91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45:B109"/>
+      <selection pane="bottomRight" activeCell="AW107" sqref="AW107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1388,6 +1391,9 @@
       <c r="AW4" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="AX4" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="AY4" s="19" t="s">
         <v>23</v>
       </c>
@@ -1570,7 +1576,10 @@
       <c r="AW5" s="21">
         <v>4.9206498085706976</v>
       </c>
-      <c r="AX5" s="21"/>
+      <c r="AX5" s="21">
+        <f>AVERAGE(AG5:AW5)</f>
+        <v>22.223346065375161</v>
+      </c>
       <c r="AY5" s="21">
         <v>2.8257357286443709</v>
       </c>
@@ -1753,7 +1762,10 @@
       <c r="AW6" s="21">
         <v>11.481516219998296</v>
       </c>
-      <c r="AX6" s="21"/>
+      <c r="AX6" s="21">
+        <f t="shared" ref="AX6:AX69" si="0">AVERAGE(AG6:AW6)</f>
+        <v>51.854474152542039</v>
+      </c>
       <c r="AY6" s="21">
         <v>6.5933833668368651</v>
       </c>
@@ -1936,7 +1948,10 @@
       <c r="AW7" s="21">
         <v>11.481516219998296</v>
       </c>
-      <c r="AX7" s="21"/>
+      <c r="AX7" s="21">
+        <f t="shared" si="0"/>
+        <v>51.854474152542039</v>
+      </c>
       <c r="AY7" s="21">
         <v>6.5933833668368651</v>
       </c>
@@ -2119,7 +2134,10 @@
       <c r="AW8" s="21">
         <v>11.481516219998296</v>
       </c>
-      <c r="AX8" s="21"/>
+      <c r="AX8" s="21">
+        <f t="shared" si="0"/>
+        <v>51.854474152542039</v>
+      </c>
       <c r="AY8" s="21">
         <v>6.5933833668368651</v>
       </c>
@@ -2302,7 +2320,10 @@
       <c r="AW9" s="21">
         <v>11.481516219998296</v>
       </c>
-      <c r="AX9" s="21"/>
+      <c r="AX9" s="21">
+        <f t="shared" si="0"/>
+        <v>51.854474152542039</v>
+      </c>
       <c r="AY9" s="21">
         <v>6.5933833668368651</v>
       </c>
@@ -2485,7 +2506,10 @@
       <c r="AW10" s="21">
         <v>12.273344924825762</v>
       </c>
-      <c r="AX10" s="21"/>
+      <c r="AX10" s="21">
+        <f t="shared" si="0"/>
+        <v>57.64997054977367</v>
+      </c>
       <c r="AY10" s="21">
         <v>5.2860745958261068</v>
       </c>
@@ -2668,7 +2692,10 @@
       <c r="AW11" s="21">
         <v>12.273344924825762</v>
       </c>
-      <c r="AX11" s="21"/>
+      <c r="AX11" s="21">
+        <f t="shared" si="0"/>
+        <v>57.64997054977367</v>
+      </c>
       <c r="AY11" s="21">
         <v>5.2860745958261068</v>
       </c>
@@ -2851,7 +2878,10 @@
       <c r="AW12" s="21">
         <v>12.273344924825762</v>
       </c>
-      <c r="AX12" s="21"/>
+      <c r="AX12" s="21">
+        <f t="shared" si="0"/>
+        <v>57.64997054977367</v>
+      </c>
       <c r="AY12" s="21">
         <v>5.2860745958261068</v>
       </c>
@@ -3034,7 +3064,10 @@
       <c r="AW13" s="21">
         <v>12.273344924825762</v>
       </c>
-      <c r="AX13" s="21"/>
+      <c r="AX13" s="21">
+        <f t="shared" si="0"/>
+        <v>57.64997054977367</v>
+      </c>
       <c r="AY13" s="21">
         <v>5.2860745958261068</v>
       </c>
@@ -3217,7 +3250,10 @@
       <c r="AW14" s="21">
         <v>11.594634606402218</v>
       </c>
-      <c r="AX14" s="21"/>
+      <c r="AX14" s="21">
+        <f t="shared" si="0"/>
+        <v>51.79098963776493</v>
+      </c>
       <c r="AY14" s="21">
         <v>5.1821394885656247</v>
       </c>
@@ -3398,7 +3434,10 @@
       <c r="AW15" s="21">
         <v>11.481516219998296</v>
       </c>
-      <c r="AX15" s="21"/>
+      <c r="AX15" s="21">
+        <f t="shared" si="0"/>
+        <v>50.814492819096799</v>
+      </c>
       <c r="AY15" s="21">
         <v>5.1648169706888769</v>
       </c>
@@ -3581,7 +3620,10 @@
       <c r="AW16" s="21">
         <v>11.481516219998296</v>
       </c>
-      <c r="AX16" s="21"/>
+      <c r="AX16" s="21">
+        <f t="shared" si="0"/>
+        <v>50.814492819096799</v>
+      </c>
       <c r="AY16" s="21">
         <v>5.1648169706888769</v>
       </c>
@@ -3764,7 +3806,10 @@
       <c r="AW17" s="21">
         <v>11.481516219998296</v>
       </c>
-      <c r="AX17" s="21"/>
+      <c r="AX17" s="21">
+        <f t="shared" si="0"/>
+        <v>50.814492819096799</v>
+      </c>
       <c r="AY17" s="21">
         <v>5.1648169706888769</v>
       </c>
@@ -3947,7 +3992,10 @@
       <c r="AW18" s="21">
         <v>6.5608664114275959</v>
       </c>
-      <c r="AX18" s="21"/>
+      <c r="AX18" s="21">
+        <f t="shared" si="0"/>
+        <v>49.962060425036569</v>
+      </c>
       <c r="AY18" s="21">
         <v>5.4697609514050818</v>
       </c>
@@ -4130,7 +4178,10 @@
       <c r="AW19" s="21">
         <v>0</v>
       </c>
-      <c r="AX19" s="21"/>
+      <c r="AX19" s="21">
+        <f t="shared" si="0"/>
+        <v>48.825483899622967</v>
+      </c>
       <c r="AY19" s="21">
         <v>5.8763529256933555</v>
       </c>
@@ -4313,7 +4364,10 @@
       <c r="AW20" s="21">
         <v>0</v>
       </c>
-      <c r="AX20" s="21"/>
+      <c r="AX20" s="21">
+        <f t="shared" si="0"/>
+        <v>48.825483899622967</v>
+      </c>
       <c r="AY20" s="21">
         <v>5.8763529256933555</v>
       </c>
@@ -4496,7 +4550,10 @@
       <c r="AW21" s="21">
         <v>0</v>
       </c>
-      <c r="AX21" s="21"/>
+      <c r="AX21" s="21">
+        <f t="shared" si="0"/>
+        <v>48.825483899622967</v>
+      </c>
       <c r="AY21" s="21">
         <v>5.8763529256933555</v>
       </c>
@@ -4679,7 +4736,10 @@
       <c r="AW22" s="21">
         <v>0</v>
       </c>
-      <c r="AX22" s="21"/>
+      <c r="AX22" s="21">
+        <f t="shared" si="0"/>
+        <v>48.543697955596883</v>
+      </c>
       <c r="AY22" s="21">
         <v>6.0101829095083179</v>
       </c>
@@ -4860,7 +4920,10 @@
       <c r="AW23" s="21">
         <v>0</v>
       </c>
-      <c r="AX23" s="21"/>
+      <c r="AX23" s="21">
+        <f t="shared" si="0"/>
+        <v>46.852982291440469</v>
+      </c>
       <c r="AY23" s="21">
         <v>6.8131628123980938</v>
       </c>
@@ -5041,7 +5104,10 @@
       <c r="AW24" s="21">
         <v>0</v>
       </c>
-      <c r="AX24" s="21"/>
+      <c r="AX24" s="21">
+        <f t="shared" si="0"/>
+        <v>46.852982291440469</v>
+      </c>
       <c r="AY24" s="21">
         <v>6.8131628123980938</v>
       </c>
@@ -5224,7 +5290,10 @@
       <c r="AW25" s="21">
         <v>0</v>
       </c>
-      <c r="AX25" s="21"/>
+      <c r="AX25" s="21">
+        <f t="shared" si="0"/>
+        <v>46.852982291440469</v>
+      </c>
       <c r="AY25" s="21">
         <v>6.8131628123980938</v>
       </c>
@@ -5407,7 +5476,10 @@
       <c r="AW26" s="21">
         <v>0</v>
       </c>
-      <c r="AX26" s="21"/>
+      <c r="AX26" s="21">
+        <f t="shared" si="0"/>
+        <v>46.852982291440469</v>
+      </c>
       <c r="AY26" s="21">
         <v>6.8131628123980938</v>
       </c>
@@ -5590,7 +5662,10 @@
       <c r="AW27" s="21">
         <v>0</v>
       </c>
-      <c r="AX27" s="21"/>
+      <c r="AX27" s="21">
+        <f t="shared" si="0"/>
+        <v>46.706471447772365</v>
+      </c>
       <c r="AY27" s="21">
         <v>4.8057130551736558</v>
       </c>
@@ -5773,7 +5848,10 @@
       <c r="AW28" s="21">
         <v>0</v>
       </c>
-      <c r="AX28" s="21"/>
+      <c r="AX28" s="21">
+        <f t="shared" si="0"/>
+        <v>46.647867110305135</v>
+      </c>
       <c r="AY28" s="21">
         <v>4.0027331522838807</v>
       </c>
@@ -5956,7 +6034,10 @@
       <c r="AW29" s="21">
         <v>0</v>
       </c>
-      <c r="AX29" s="21"/>
+      <c r="AX29" s="21">
+        <f t="shared" si="0"/>
+        <v>46.647867110305135</v>
+      </c>
       <c r="AY29" s="21">
         <v>4.0027331522838807</v>
       </c>
@@ -6139,7 +6220,10 @@
       <c r="AW30" s="21">
         <v>0</v>
       </c>
-      <c r="AX30" s="21"/>
+      <c r="AX30" s="21">
+        <f t="shared" si="0"/>
+        <v>46.647867110305135</v>
+      </c>
       <c r="AY30" s="21">
         <v>4.0027331522838807</v>
       </c>
@@ -6320,7 +6404,10 @@
       <c r="AW31" s="21">
         <v>0</v>
       </c>
-      <c r="AX31" s="21"/>
+      <c r="AX31" s="21">
+        <f t="shared" si="0"/>
+        <v>45.915091484444176</v>
+      </c>
       <c r="AY31" s="21">
         <v>17.0988408646636</v>
       </c>
@@ -6503,7 +6590,10 @@
       <c r="AW32" s="21">
         <v>0</v>
       </c>
-      <c r="AX32" s="21"/>
+      <c r="AX32" s="21">
+        <f t="shared" si="0"/>
+        <v>44.938057316629568</v>
+      </c>
       <c r="AY32" s="21">
         <v>34.560317814503236</v>
       </c>
@@ -6686,7 +6776,10 @@
       <c r="AW33" s="21">
         <v>0</v>
       </c>
-      <c r="AX33" s="21"/>
+      <c r="AX33" s="21">
+        <f t="shared" si="0"/>
+        <v>44.938057316629568</v>
+      </c>
       <c r="AY33" s="21">
         <v>34.560317814503236</v>
       </c>
@@ -6869,7 +6962,10 @@
       <c r="AW34" s="21">
         <v>0</v>
       </c>
-      <c r="AX34" s="21"/>
+      <c r="AX34" s="21">
+        <f t="shared" si="0"/>
+        <v>44.938057316629568</v>
+      </c>
       <c r="AY34" s="21">
         <v>34.560317814503236</v>
       </c>
@@ -7052,7 +7148,10 @@
       <c r="AW35" s="21">
         <v>0</v>
       </c>
-      <c r="AX35" s="21"/>
+      <c r="AX35" s="21">
+        <f t="shared" si="0"/>
+        <v>44.938057316629568</v>
+      </c>
       <c r="AY35" s="21">
         <v>34.560317814503236</v>
       </c>
@@ -7235,7 +7334,10 @@
       <c r="AW36" s="21">
         <v>0</v>
       </c>
-      <c r="AX36" s="21"/>
+      <c r="AX36" s="21">
+        <f t="shared" si="0"/>
+        <v>42.612243935107379</v>
+      </c>
       <c r="AY36" s="21">
         <v>36.236136086907614</v>
       </c>
@@ -7418,7 +7520,10 @@
       <c r="AW37" s="21">
         <v>0</v>
       </c>
-      <c r="AX37" s="21"/>
+      <c r="AX37" s="21">
+        <f t="shared" si="0"/>
+        <v>42.612243935107379</v>
+      </c>
       <c r="AY37" s="21">
         <v>36.236136086907614</v>
       </c>
@@ -7601,7 +7706,10 @@
       <c r="AW38" s="21">
         <v>0</v>
       </c>
-      <c r="AX38" s="21"/>
+      <c r="AX38" s="21">
+        <f t="shared" si="0"/>
+        <v>42.612243935107379</v>
+      </c>
       <c r="AY38" s="21">
         <v>36.236136086907614</v>
       </c>
@@ -7782,7 +7890,10 @@
       <c r="AW39" s="21">
         <v>0</v>
       </c>
-      <c r="AX39" s="21"/>
+      <c r="AX39" s="21">
+        <f t="shared" si="0"/>
+        <v>42.612243935107379</v>
+      </c>
       <c r="AY39" s="21">
         <v>36.236136086907614</v>
       </c>
@@ -7965,7 +8076,10 @@
       <c r="AW40" s="21">
         <v>0</v>
       </c>
-      <c r="AX40" s="21"/>
+      <c r="AX40" s="21">
+        <f t="shared" si="0"/>
+        <v>47.008524020930011</v>
+      </c>
       <c r="AY40" s="21">
         <v>36.585690062228799</v>
       </c>
@@ -8148,7 +8262,10 @@
       <c r="AW41" s="21">
         <v>0</v>
       </c>
-      <c r="AX41" s="21"/>
+      <c r="AX41" s="21">
+        <f t="shared" si="0"/>
+        <v>50.305734085297011</v>
+      </c>
       <c r="AY41" s="21">
         <v>36.847855543719696</v>
       </c>
@@ -8331,7 +8448,10 @@
       <c r="AW42" s="21">
         <v>0</v>
       </c>
-      <c r="AX42" s="21"/>
+      <c r="AX42" s="21">
+        <f t="shared" si="0"/>
+        <v>50.305734085297011</v>
+      </c>
       <c r="AY42" s="21">
         <v>36.847855543719696</v>
       </c>
@@ -8514,7 +8634,10 @@
       <c r="AW43" s="21">
         <v>0</v>
       </c>
-      <c r="AX43" s="21"/>
+      <c r="AX43" s="21">
+        <f t="shared" si="0"/>
+        <v>50.305734085297011</v>
+      </c>
       <c r="AY43" s="21">
         <v>36.847855543719696</v>
       </c>
@@ -8697,7 +8820,10 @@
       <c r="AW44" s="21">
         <v>0</v>
       </c>
-      <c r="AX44" s="21"/>
+      <c r="AX44" s="21">
+        <f t="shared" si="0"/>
+        <v>50.430682112603613</v>
+      </c>
       <c r="AY44" s="21">
         <v>46.139293247017733</v>
       </c>
@@ -8880,7 +9006,10 @@
       <c r="AW45" s="21">
         <v>0</v>
       </c>
-      <c r="AX45" s="21"/>
+      <c r="AX45" s="21">
+        <f t="shared" si="0"/>
+        <v>50.743052180870137</v>
+      </c>
       <c r="AY45" s="21">
         <v>69.367887505262843</v>
       </c>
@@ -9061,7 +9190,10 @@
       <c r="AW46" s="21">
         <v>0</v>
       </c>
-      <c r="AX46" s="21"/>
+      <c r="AX46" s="21">
+        <f t="shared" si="0"/>
+        <v>50.743052180870137</v>
+      </c>
       <c r="AY46" s="21">
         <v>69.367887505262843</v>
       </c>
@@ -9244,7 +9376,10 @@
       <c r="AW47" s="21">
         <v>0</v>
       </c>
-      <c r="AX47" s="21"/>
+      <c r="AX47" s="21">
+        <f t="shared" si="0"/>
+        <v>50.743052180870137</v>
+      </c>
       <c r="AY47" s="21">
         <v>69.367887505262843</v>
       </c>
@@ -9427,7 +9562,10 @@
       <c r="AW48" s="21">
         <v>0</v>
       </c>
-      <c r="AX48" s="21"/>
+      <c r="AX48" s="21">
+        <f t="shared" si="0"/>
+        <v>50.743052180870137</v>
+      </c>
       <c r="AY48" s="21">
         <v>69.367887505262843</v>
       </c>
@@ -9608,7 +9746,10 @@
       <c r="AW49" s="21">
         <v>0</v>
       </c>
-      <c r="AX49" s="21"/>
+      <c r="AX49" s="21">
+        <f t="shared" si="0"/>
+        <v>53.828710564217353</v>
+      </c>
       <c r="AY49" s="21">
         <v>95.390558786303643</v>
       </c>
@@ -9791,7 +9932,10 @@
       <c r="AW50" s="21">
         <v>0</v>
       </c>
-      <c r="AX50" s="21"/>
+      <c r="AX50" s="21">
+        <f t="shared" si="0"/>
+        <v>54.342986961441895</v>
+      </c>
       <c r="AY50" s="21">
         <v>99.727670666477096</v>
       </c>
@@ -9974,7 +10118,10 @@
       <c r="AW51" s="21">
         <v>0</v>
       </c>
-      <c r="AX51" s="21"/>
+      <c r="AX51" s="21">
+        <f t="shared" si="0"/>
+        <v>54.342986961441895</v>
+      </c>
       <c r="AY51" s="21">
         <v>99.727670666477096</v>
       </c>
@@ -10157,7 +10304,10 @@
       <c r="AW52" s="21">
         <v>0</v>
       </c>
-      <c r="AX52" s="21"/>
+      <c r="AX52" s="21">
+        <f t="shared" si="0"/>
+        <v>54.342986961441895</v>
+      </c>
       <c r="AY52" s="21">
         <v>99.727670666477096</v>
       </c>
@@ -10340,7 +10490,10 @@
       <c r="AW53" s="21">
         <v>0</v>
       </c>
-      <c r="AX53" s="21"/>
+      <c r="AX53" s="21">
+        <f t="shared" si="0"/>
+        <v>55.692647898216094</v>
+      </c>
       <c r="AY53" s="21">
         <v>81.876870127357577</v>
       </c>
@@ -10523,7 +10676,10 @@
       <c r="AW54" s="21">
         <v>0</v>
       </c>
-      <c r="AX54" s="21"/>
+      <c r="AX54" s="21">
+        <f t="shared" si="0"/>
+        <v>56.704893600796737</v>
+      </c>
       <c r="AY54" s="21">
         <v>68.488769723017924</v>
       </c>
@@ -10706,7 +10862,10 @@
       <c r="AW55" s="21">
         <v>0</v>
       </c>
-      <c r="AX55" s="21"/>
+      <c r="AX55" s="21">
+        <f t="shared" si="0"/>
+        <v>56.704893600796737</v>
+      </c>
       <c r="AY55" s="21">
         <v>68.488769723017924</v>
       </c>
@@ -10889,7 +11048,10 @@
       <c r="AW56" s="21">
         <v>0</v>
       </c>
-      <c r="AX56" s="21"/>
+      <c r="AX56" s="21">
+        <f t="shared" si="0"/>
+        <v>56.704893600796737</v>
+      </c>
       <c r="AY56" s="21">
         <v>68.488769723017924</v>
       </c>
@@ -11072,7 +11234,10 @@
       <c r="AW57" s="21">
         <v>0</v>
       </c>
-      <c r="AX57" s="21"/>
+      <c r="AX57" s="21">
+        <f t="shared" si="0"/>
+        <v>6.9434563592812317</v>
+      </c>
       <c r="AY57" s="21">
         <v>8.3863799660838279</v>
       </c>
@@ -11255,7 +11420,10 @@
       <c r="AW58" s="21">
         <v>0</v>
       </c>
-      <c r="AX58" s="21"/>
+      <c r="AX58" s="21">
+        <f t="shared" si="0"/>
+        <v>46.37469579710929</v>
+      </c>
       <c r="AY58" s="21">
         <v>20.212383010114348</v>
       </c>
@@ -11438,7 +11606,10 @@
       <c r="AW59" s="21">
         <v>0</v>
       </c>
-      <c r="AX59" s="21"/>
+      <c r="AX59" s="21">
+        <f t="shared" si="0"/>
+        <v>46.37469579710929</v>
+      </c>
       <c r="AY59" s="21">
         <v>20.212383010114348</v>
       </c>
@@ -11621,7 +11792,10 @@
       <c r="AW60" s="21">
         <v>0</v>
       </c>
-      <c r="AX60" s="21"/>
+      <c r="AX60" s="21">
+        <f t="shared" si="0"/>
+        <v>46.37469579710929</v>
+      </c>
       <c r="AY60" s="21">
         <v>20.212383010114348</v>
       </c>
@@ -11804,7 +11978,10 @@
       <c r="AW61" s="21">
         <v>0</v>
       </c>
-      <c r="AX61" s="21"/>
+      <c r="AX61" s="21">
+        <f t="shared" si="0"/>
+        <v>46.37469579710929</v>
+      </c>
       <c r="AY61" s="21">
         <v>20.212383010114348</v>
       </c>
@@ -11987,7 +12164,10 @@
       <c r="AW62" s="21">
         <v>0</v>
       </c>
-      <c r="AX62" s="21"/>
+      <c r="AX62" s="21">
+        <f t="shared" si="0"/>
+        <v>31.277163259290813</v>
+      </c>
       <c r="AY62" s="21">
         <v>49.639047308475746</v>
       </c>
@@ -12170,7 +12350,10 @@
       <c r="AW63" s="21">
         <v>0</v>
       </c>
-      <c r="AX63" s="21"/>
+      <c r="AX63" s="21">
+        <f t="shared" si="0"/>
+        <v>25.238150244163418</v>
+      </c>
       <c r="AY63" s="21">
         <v>61.40971302782031</v>
       </c>
@@ -12353,7 +12536,10 @@
       <c r="AW64" s="21">
         <v>0</v>
       </c>
-      <c r="AX64" s="21"/>
+      <c r="AX64" s="21">
+        <f t="shared" si="0"/>
+        <v>25.238150244163418</v>
+      </c>
       <c r="AY64" s="21">
         <v>61.40971302782031</v>
       </c>
@@ -12536,7 +12722,10 @@
       <c r="AW65" s="21">
         <v>0</v>
       </c>
-      <c r="AX65" s="21"/>
+      <c r="AX65" s="21">
+        <f t="shared" si="0"/>
+        <v>25.238150244163418</v>
+      </c>
       <c r="AY65" s="21">
         <v>61.40971302782031</v>
       </c>
@@ -12719,7 +12908,10 @@
       <c r="AW66" s="21">
         <v>0</v>
       </c>
-      <c r="AX66" s="21"/>
+      <c r="AX66" s="21">
+        <f t="shared" si="0"/>
+        <v>21.375184349148828</v>
+      </c>
       <c r="AY66" s="21">
         <v>57.459149460764678</v>
       </c>
@@ -12900,7 +13092,10 @@
       <c r="AW67" s="21">
         <v>0</v>
       </c>
-      <c r="AX67" s="21"/>
+      <c r="AX67" s="21">
+        <f t="shared" si="0"/>
+        <v>19.829997991142989</v>
+      </c>
       <c r="AY67" s="21">
         <v>55.878924033942432</v>
       </c>
@@ -13083,7 +13278,10 @@
       <c r="AW68" s="21">
         <v>0</v>
       </c>
-      <c r="AX68" s="21"/>
+      <c r="AX68" s="21">
+        <f t="shared" si="0"/>
+        <v>19.829997991142989</v>
+      </c>
       <c r="AY68" s="21">
         <v>55.878924033942432</v>
       </c>
@@ -13266,7 +13464,10 @@
       <c r="AW69" s="21">
         <v>0</v>
       </c>
-      <c r="AX69" s="21"/>
+      <c r="AX69" s="21">
+        <f t="shared" si="0"/>
+        <v>19.829997991142989</v>
+      </c>
       <c r="AY69" s="21">
         <v>55.878924033942432</v>
       </c>
@@ -13449,7 +13650,10 @@
       <c r="AW70" s="21">
         <v>0</v>
       </c>
-      <c r="AX70" s="21"/>
+      <c r="AX70" s="21">
+        <f t="shared" ref="AX70:AX109" si="1">AVERAGE(AG70:AW70)</f>
+        <v>18.736335735988451</v>
+      </c>
       <c r="AY70" s="21">
         <v>62.429398080455442</v>
       </c>
@@ -13632,7 +13836,10 @@
       <c r="AW71" s="21">
         <v>0</v>
       </c>
-      <c r="AX71" s="21"/>
+      <c r="AX71" s="21">
+        <f t="shared" si="1"/>
+        <v>16.002180098102112</v>
+      </c>
       <c r="AY71" s="21">
         <v>78.805583196737956</v>
       </c>
@@ -13815,7 +14022,10 @@
       <c r="AW72" s="21">
         <v>0</v>
       </c>
-      <c r="AX72" s="21"/>
+      <c r="AX72" s="21">
+        <f t="shared" si="1"/>
+        <v>16.002180098102112</v>
+      </c>
       <c r="AY72" s="21">
         <v>78.805583196737956</v>
       </c>
@@ -13998,7 +14208,10 @@
       <c r="AW73" s="21">
         <v>0</v>
       </c>
-      <c r="AX73" s="21"/>
+      <c r="AX73" s="21">
+        <f t="shared" si="1"/>
+        <v>16.002180098102112</v>
+      </c>
       <c r="AY73" s="21">
         <v>78.805583196737956</v>
       </c>
@@ -14181,7 +14394,10 @@
       <c r="AW74" s="21">
         <v>0</v>
       </c>
-      <c r="AX74" s="21"/>
+      <c r="AX74" s="21">
+        <f t="shared" si="1"/>
+        <v>16.002180098102112</v>
+      </c>
       <c r="AY74" s="21">
         <v>78.805583196737956</v>
       </c>
@@ -14362,7 +14578,10 @@
       <c r="AW75" s="21">
         <v>0</v>
       </c>
-      <c r="AX75" s="21"/>
+      <c r="AX75" s="21">
+        <f t="shared" si="1"/>
+        <v>13.299603815100811</v>
+      </c>
       <c r="AY75" s="21">
         <v>13.021932149502808</v>
       </c>
@@ -14543,7 +14762,10 @@
       <c r="AW76" s="21">
         <v>0</v>
       </c>
-      <c r="AX76" s="21"/>
+      <c r="AX76" s="21">
+        <f t="shared" si="1"/>
+        <v>13.299603815100811</v>
+      </c>
       <c r="AY76" s="21">
         <v>13.021932149502808</v>
       </c>
@@ -14726,7 +14948,10 @@
       <c r="AW77" s="21">
         <v>0</v>
       </c>
-      <c r="AX77" s="21"/>
+      <c r="AX77" s="21">
+        <f t="shared" si="1"/>
+        <v>13.299603815100811</v>
+      </c>
       <c r="AY77" s="21">
         <v>13.021932149502808</v>
       </c>
@@ -14909,7 +15134,10 @@
       <c r="AW78" s="21">
         <v>0</v>
       </c>
-      <c r="AX78" s="21"/>
+      <c r="AX78" s="21">
+        <f t="shared" si="1"/>
+        <v>13.299603815100811</v>
+      </c>
       <c r="AY78" s="21">
         <v>13.021932149502808</v>
       </c>
@@ -15092,7 +15320,10 @@
       <c r="AW79" s="21">
         <v>0</v>
       </c>
-      <c r="AX79" s="21"/>
+      <c r="AX79" s="21">
+        <f t="shared" si="1"/>
+        <v>13.738628738666506</v>
+      </c>
       <c r="AY79" s="21">
         <v>7.9167695997519782</v>
       </c>
@@ -15275,7 +15506,10 @@
       <c r="AW80" s="21">
         <v>0</v>
       </c>
-      <c r="AX80" s="21"/>
+      <c r="AX80" s="21">
+        <f t="shared" si="1"/>
+        <v>14.067897431340775</v>
+      </c>
       <c r="AY80" s="21">
         <v>4.087897687438856</v>
       </c>
@@ -15458,7 +15692,10 @@
       <c r="AW81" s="21">
         <v>0</v>
       </c>
-      <c r="AX81" s="21"/>
+      <c r="AX81" s="21">
+        <f t="shared" si="1"/>
+        <v>14.067897431340775</v>
+      </c>
       <c r="AY81" s="21">
         <v>4.087897687438856</v>
       </c>
@@ -15641,7 +15878,10 @@
       <c r="AW82" s="21">
         <v>0</v>
       </c>
-      <c r="AX82" s="21"/>
+      <c r="AX82" s="21">
+        <f t="shared" si="1"/>
+        <v>14.067897431340775</v>
+      </c>
       <c r="AY82" s="21">
         <v>4.087897687438856</v>
       </c>
@@ -15822,7 +16062,10 @@
       <c r="AW83" s="21">
         <v>0</v>
       </c>
-      <c r="AX83" s="21"/>
+      <c r="AX83" s="21">
+        <f t="shared" si="1"/>
+        <v>13.521240724754845</v>
+      </c>
       <c r="AY83" s="21">
         <v>6.9544495988303119</v>
       </c>
@@ -16005,7 +16248,10 @@
       <c r="AW84" s="21">
         <v>0</v>
       </c>
-      <c r="AX84" s="21"/>
+      <c r="AX84" s="21">
+        <f t="shared" si="1"/>
+        <v>12.154598958290013</v>
+      </c>
       <c r="AY84" s="21">
         <v>14.120829377308949</v>
       </c>
@@ -16188,7 +16434,10 @@
       <c r="AW85" s="21">
         <v>0</v>
       </c>
-      <c r="AX85" s="21"/>
+      <c r="AX85" s="21">
+        <f t="shared" si="1"/>
+        <v>12.154598958290013</v>
+      </c>
       <c r="AY85" s="21">
         <v>14.120829377308949</v>
       </c>
@@ -16371,7 +16620,10 @@
       <c r="AW86" s="21">
         <v>0</v>
       </c>
-      <c r="AX86" s="21"/>
+      <c r="AX86" s="21">
+        <f t="shared" si="1"/>
+        <v>12.154598958290013</v>
+      </c>
       <c r="AY86" s="21">
         <v>14.120829377308949</v>
       </c>
@@ -16554,7 +16806,10 @@
       <c r="AW87" s="21">
         <v>0</v>
       </c>
-      <c r="AX87" s="21"/>
+      <c r="AX87" s="21">
+        <f t="shared" si="1"/>
+        <v>12.154598958290013</v>
+      </c>
       <c r="AY87" s="21">
         <v>14.120829377308949</v>
       </c>
@@ -16737,7 +16992,10 @@
       <c r="AW88" s="21">
         <v>0</v>
       </c>
-      <c r="AX88" s="21"/>
+      <c r="AX88" s="21">
+        <f t="shared" si="1"/>
+        <v>12.857552376424888</v>
+      </c>
       <c r="AY88" s="21">
         <v>15.486601646153733</v>
       </c>
@@ -16920,7 +17178,10 @@
       <c r="AW89" s="21">
         <v>0</v>
       </c>
-      <c r="AX89" s="21"/>
+      <c r="AX89" s="21">
+        <f t="shared" si="1"/>
+        <v>12.974711279447366</v>
+      </c>
       <c r="AY89" s="21">
         <v>15.714230357627862</v>
       </c>
@@ -17103,7 +17364,10 @@
       <c r="AW90" s="21">
         <v>0</v>
       </c>
-      <c r="AX90" s="21"/>
+      <c r="AX90" s="21">
+        <f t="shared" si="1"/>
+        <v>12.974711279447366</v>
+      </c>
       <c r="AY90" s="21">
         <v>15.714230357627862</v>
       </c>
@@ -17284,7 +17548,10 @@
       <c r="AW91" s="21">
         <v>0</v>
       </c>
-      <c r="AX91" s="21"/>
+      <c r="AX91" s="21">
+        <f t="shared" si="1"/>
+        <v>12.974711279447366</v>
+      </c>
       <c r="AY91" s="21">
         <v>15.714230357627862</v>
       </c>
@@ -17467,7 +17734,10 @@
       <c r="AW92" s="21">
         <v>0</v>
       </c>
-      <c r="AX92" s="21"/>
+      <c r="AX92" s="21">
+        <f t="shared" si="1"/>
+        <v>12.527062269734019</v>
+      </c>
       <c r="AY92" s="21">
         <v>31.061507533827598</v>
       </c>
@@ -17650,7 +17920,10 @@
       <c r="AW93" s="21">
         <v>0</v>
       </c>
-      <c r="AX93" s="21"/>
+      <c r="AX93" s="21">
+        <f t="shared" si="1"/>
+        <v>11.930196923449556</v>
+      </c>
       <c r="AY93" s="21">
         <v>51.52454376876058</v>
       </c>
@@ -17833,7 +18106,10 @@
       <c r="AW94" s="21">
         <v>0</v>
       </c>
-      <c r="AX94" s="21"/>
+      <c r="AX94" s="21">
+        <f t="shared" si="1"/>
+        <v>11.930196923449556</v>
+      </c>
       <c r="AY94" s="21">
         <v>51.52454376876058</v>
       </c>
@@ -18016,7 +18292,10 @@
       <c r="AW95" s="21">
         <v>0</v>
       </c>
-      <c r="AX95" s="21"/>
+      <c r="AX95" s="21">
+        <f t="shared" si="1"/>
+        <v>11.930196923449556</v>
+      </c>
       <c r="AY95" s="21">
         <v>51.52454376876058</v>
       </c>
@@ -18199,7 +18478,10 @@
       <c r="AW96" s="21">
         <v>0</v>
       </c>
-      <c r="AX96" s="21"/>
+      <c r="AX96" s="21">
+        <f t="shared" si="1"/>
+        <v>12.006341158779207</v>
+      </c>
       <c r="AY96" s="21">
         <v>51.644245073932325</v>
       </c>
@@ -18382,7 +18664,10 @@
       <c r="AW97" s="21">
         <v>0</v>
       </c>
-      <c r="AX97" s="21"/>
+      <c r="AX97" s="21">
+        <f t="shared" si="1"/>
+        <v>12.463206570757112</v>
+      </c>
       <c r="AY97" s="21">
         <v>52.362452904962765</v>
       </c>
@@ -18565,7 +18850,10 @@
       <c r="AW98" s="21">
         <v>0</v>
       </c>
-      <c r="AX98" s="21"/>
+      <c r="AX98" s="21">
+        <f t="shared" si="1"/>
+        <v>12.463206570757112</v>
+      </c>
       <c r="AY98" s="21">
         <v>52.362452904962765</v>
       </c>
@@ -18748,7 +19036,10 @@
       <c r="AW99" s="21">
         <v>0</v>
       </c>
-      <c r="AX99" s="21"/>
+      <c r="AX99" s="21">
+        <f t="shared" si="1"/>
+        <v>12.463206570757112</v>
+      </c>
       <c r="AY99" s="21">
         <v>52.362452904962765</v>
       </c>
@@ -18931,7 +19222,10 @@
       <c r="AW100" s="21">
         <v>0</v>
       </c>
-      <c r="AX100" s="21"/>
+      <c r="AX100" s="21">
+        <f t="shared" si="1"/>
+        <v>12.463206570757112</v>
+      </c>
       <c r="AY100" s="21">
         <v>52.362452904962765</v>
       </c>
@@ -19112,7 +19406,10 @@
       <c r="AW101" s="21">
         <v>0</v>
       </c>
-      <c r="AX101" s="21"/>
+      <c r="AX101" s="21">
+        <f t="shared" si="1"/>
+        <v>13.241782270991779</v>
+      </c>
       <c r="AY101" s="21">
         <v>25.667099535186367</v>
       </c>
@@ -19295,7 +19592,10 @@
       <c r="AW102" s="21">
         <v>0</v>
       </c>
-      <c r="AX102" s="21"/>
+      <c r="AX102" s="21">
+        <f t="shared" si="1"/>
+        <v>13.553212551085645</v>
+      </c>
       <c r="AY102" s="21">
         <v>14.988958187275802</v>
       </c>
@@ -19478,7 +19778,10 @@
       <c r="AW103" s="21">
         <v>0</v>
       </c>
-      <c r="AX103" s="21"/>
+      <c r="AX103" s="21">
+        <f t="shared" si="1"/>
+        <v>13.553212551085645</v>
+      </c>
       <c r="AY103" s="21">
         <v>14.988958187275802</v>
       </c>
@@ -19661,7 +19964,10 @@
       <c r="AW104" s="21">
         <v>0</v>
       </c>
-      <c r="AX104" s="21"/>
+      <c r="AX104" s="21">
+        <f t="shared" si="1"/>
+        <v>13.553212551085645</v>
+      </c>
       <c r="AY104" s="21">
         <v>14.988958187275802</v>
       </c>
@@ -19844,7 +20150,10 @@
       <c r="AW105" s="21">
         <v>0</v>
       </c>
-      <c r="AX105" s="21"/>
+      <c r="AX105" s="21">
+        <f t="shared" si="1"/>
+        <v>9.7450210611901174</v>
+      </c>
       <c r="AY105" s="21">
         <v>38.14115292396869</v>
       </c>
@@ -20027,7 +20336,10 @@
       <c r="AW106" s="21">
         <v>0</v>
       </c>
-      <c r="AX106" s="21"/>
+      <c r="AX106" s="21">
+        <f t="shared" si="1"/>
+        <v>4.6674324079960829</v>
+      </c>
       <c r="AY106" s="21">
         <v>69.01074590622585</v>
       </c>
@@ -20210,7 +20522,10 @@
       <c r="AW107" s="21">
         <v>0</v>
       </c>
-      <c r="AX107" s="21"/>
+      <c r="AX107" s="21">
+        <f t="shared" si="1"/>
+        <v>4.6674324079960829</v>
+      </c>
       <c r="AY107" s="21">
         <v>69.01074590622585</v>
       </c>
@@ -20393,7 +20708,10 @@
       <c r="AW108" s="21">
         <v>0</v>
       </c>
-      <c r="AX108" s="21"/>
+      <c r="AX108" s="21">
+        <f t="shared" si="1"/>
+        <v>4.6674324079960829</v>
+      </c>
       <c r="AY108" s="21">
         <v>69.01074590622585</v>
       </c>
@@ -20576,7 +20894,10 @@
       <c r="AW109" s="21">
         <v>0</v>
       </c>
-      <c r="AX109" s="21"/>
+      <c r="AX109" s="21">
+        <f t="shared" si="1"/>
+        <v>4.6674324079960829</v>
+      </c>
       <c r="AY109" s="21">
         <v>69.01074590622585</v>
       </c>
